--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N2">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O2">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P2">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q2">
-        <v>34.17664868638222</v>
+        <v>37.25913966177734</v>
       </c>
       <c r="R2">
-        <v>307.58983817744</v>
+        <v>335.3322569559961</v>
       </c>
       <c r="S2">
-        <v>0.001686884292756108</v>
+        <v>0.002160855682900717</v>
       </c>
       <c r="T2">
-        <v>0.001686884292756107</v>
+        <v>0.002160855682900717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.052059</v>
       </c>
       <c r="O3">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P3">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q3">
-        <v>107.0016285421891</v>
+        <v>120.4216387633268</v>
       </c>
       <c r="R3">
-        <v>963.014656879702</v>
+        <v>1083.794748869941</v>
       </c>
       <c r="S3">
-        <v>0.005281365301304775</v>
+        <v>0.006983891330504737</v>
       </c>
       <c r="T3">
-        <v>0.005281365301304773</v>
+        <v>0.006983891330504737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N4">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O4">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P4">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q4">
-        <v>98.71257639621467</v>
+        <v>75.600205954532</v>
       </c>
       <c r="R4">
-        <v>888.413187565932</v>
+        <v>680.4018535907881</v>
       </c>
       <c r="S4">
-        <v>0.004872235898501391</v>
+        <v>0.004384458045683238</v>
       </c>
       <c r="T4">
-        <v>0.00487223589850139</v>
+        <v>0.004384458045683238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N5">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O5">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P5">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q5">
-        <v>1155.404186883773</v>
+        <v>1278.072307863244</v>
       </c>
       <c r="R5">
-        <v>10398.63768195396</v>
+        <v>11502.65077076919</v>
       </c>
       <c r="S5">
-        <v>0.05702821223122084</v>
+        <v>0.07412221094405659</v>
       </c>
       <c r="T5">
-        <v>0.05702821223122082</v>
+        <v>0.07412221094405659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N6">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O6">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P6">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q6">
-        <v>221.1650178918844</v>
+        <v>214.2425050780787</v>
       </c>
       <c r="R6">
-        <v>1990.48516102696</v>
+        <v>1928.182545702708</v>
       </c>
       <c r="S6">
-        <v>0.01091621938161532</v>
+        <v>0.01242506238252654</v>
       </c>
       <c r="T6">
-        <v>0.01091621938161532</v>
+        <v>0.01242506238252654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.052059</v>
       </c>
       <c r="O7">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P7">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q7">
         <v>692.4323478335493</v>
@@ -883,10 +883,10 @@
         <v>6231.891130501944</v>
       </c>
       <c r="S7">
-        <v>0.0341769394089849</v>
+        <v>0.04015783476008037</v>
       </c>
       <c r="T7">
-        <v>0.03417693940898488</v>
+        <v>0.04015783476008037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N8">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O8">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P8">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q8">
-        <v>638.7919694865154</v>
+        <v>434.706159485836</v>
       </c>
       <c r="R8">
-        <v>5749.127725378639</v>
+        <v>3912.355435372524</v>
       </c>
       <c r="S8">
-        <v>0.03152936818216767</v>
+        <v>0.02521092230373056</v>
       </c>
       <c r="T8">
-        <v>0.03152936818216766</v>
+        <v>0.02521092230373056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N9">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O9">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P9">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q9">
-        <v>7476.888386845448</v>
+        <v>7348.999880113741</v>
       </c>
       <c r="R9">
-        <v>67291.99548160903</v>
+        <v>66140.99892102367</v>
       </c>
       <c r="S9">
-        <v>0.36904278398384</v>
+        <v>0.4262075909087953</v>
       </c>
       <c r="T9">
-        <v>0.3690427839838399</v>
+        <v>0.4262075909087953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N10">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O10">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P10">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q10">
-        <v>81.74561860203555</v>
+        <v>65.43508093979867</v>
       </c>
       <c r="R10">
-        <v>735.7105674183199</v>
+        <v>588.915728458188</v>
       </c>
       <c r="S10">
-        <v>0.004034784138339171</v>
+        <v>0.003794928379811319</v>
       </c>
       <c r="T10">
-        <v>0.00403478413833917</v>
+        <v>0.00379492837981132</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.052059</v>
       </c>
       <c r="O11">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P11">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q11">
-        <v>255.9324759098368</v>
+        <v>211.4863561239192</v>
       </c>
       <c r="R11">
-        <v>2303.392283188531</v>
+        <v>1903.377205115273</v>
       </c>
       <c r="S11">
-        <v>0.01263226472496433</v>
+        <v>0.0122652186452696</v>
       </c>
       <c r="T11">
-        <v>0.01263226472496433</v>
+        <v>0.01226521864526961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N12">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O12">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P12">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q12">
-        <v>236.1062576777607</v>
+        <v>132.770258266996</v>
       </c>
       <c r="R12">
-        <v>2124.956319099846</v>
+        <v>1194.932324402964</v>
       </c>
       <c r="S12">
-        <v>0.01165368615140835</v>
+        <v>0.007700053455360663</v>
       </c>
       <c r="T12">
-        <v>0.01165368615140834</v>
+        <v>0.007700053455360666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N13">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O13">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P13">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q13">
-        <v>2763.560314497117</v>
+        <v>2244.57047777032</v>
       </c>
       <c r="R13">
-        <v>24872.04283047406</v>
+        <v>20201.13429993288</v>
       </c>
       <c r="S13">
-        <v>0.1364032655567785</v>
+        <v>0.1301745804274915</v>
       </c>
       <c r="T13">
-        <v>0.1364032655567784</v>
+        <v>0.1301745804274915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N14">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O14">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P14">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q14">
-        <v>159.1708090769333</v>
+        <v>108.146420272492</v>
       </c>
       <c r="R14">
-        <v>1432.5372816924</v>
+        <v>973.317782452428</v>
       </c>
       <c r="S14">
-        <v>0.007856321436342174</v>
+        <v>0.006271986120788388</v>
       </c>
       <c r="T14">
-        <v>0.00785632143634217</v>
+        <v>0.006271986120788389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.052059</v>
       </c>
       <c r="O15">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P15">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q15">
-        <v>498.3383813871717</v>
+        <v>349.5295187655903</v>
       </c>
       <c r="R15">
-        <v>4485.045432484545</v>
+        <v>3145.765668890313</v>
       </c>
       <c r="S15">
-        <v>0.02459688765137694</v>
+        <v>0.02027107587084178</v>
       </c>
       <c r="T15">
-        <v>0.02459688765137694</v>
+        <v>0.02027107587084178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N16">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O16">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P16">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q16">
-        <v>459.73380231733</v>
+        <v>219.433183913076</v>
       </c>
       <c r="R16">
-        <v>4137.60422085597</v>
+        <v>1974.898655217684</v>
       </c>
       <c r="S16">
-        <v>0.02269145044309605</v>
+        <v>0.01272609745635092</v>
       </c>
       <c r="T16">
-        <v>0.02269145044309604</v>
+        <v>0.01272609745635092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N17">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O17">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P17">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q17">
-        <v>5381.060645376988</v>
+        <v>3709.665499512471</v>
       </c>
       <c r="R17">
-        <v>48429.54580839289</v>
+        <v>33386.98949561224</v>
       </c>
       <c r="S17">
-        <v>0.2655973312173037</v>
+        <v>0.2151432332858076</v>
       </c>
       <c r="T17">
-        <v>0.2655973312173037</v>
+        <v>0.2151432332858076</v>
       </c>
     </row>
   </sheetData>
